--- a/lib/jobs/c3h8_curran_tests.xlsx
+++ b/lib/jobs/c3h8_curran_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702F456-863C-1945-A2D7-1362D0C7C81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13825FE0-3954-034A-9A1F-4E03B736355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="4520" windowWidth="18580" windowHeight="13280" activeTab="2" xr2:uid="{E67FD926-F6F9-4D40-89D7-F9619D8CC074}"/>
+    <workbookView xWindow="17180" yWindow="11980" windowWidth="18580" windowHeight="13280" activeTab="1" xr2:uid="{E67FD926-F6F9-4D40-89D7-F9619D8CC074}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -72,10 +72,10 @@
     <t>NUIG1.1</t>
   </si>
   <si>
-    <t>sens</t>
-  </si>
-  <si>
     <t>NUIGMech1.1.cti</t>
+  </si>
+  <si>
+    <t>outcome</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821614B2-A993-F74B-8EE7-FDCAF6404E21}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -469,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -487,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E131E0-4778-7544-AC59-77E4A2728CC9}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>

--- a/lib/jobs/c3h8_curran_tests.xlsx
+++ b/lib/jobs/c3h8_curran_tests.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13825FE0-3954-034A-9A1F-4E03B736355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EC705C-A811-4C42-9705-0D4218D3158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="11980" windowWidth="18580" windowHeight="13280" activeTab="1" xr2:uid="{E67FD926-F6F9-4D40-89D7-F9619D8CC074}"/>
+    <workbookView xWindow="48000" yWindow="2640" windowWidth="18580" windowHeight="13280" activeTab="1" xr2:uid="{E67FD926-F6F9-4D40-89D7-F9619D8CC074}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="exp" sheetId="1" r:id="rId2"/>
-    <sheet name="mech" sheetId="2" r:id="rId3"/>
+    <sheet name="exp" sheetId="1" r:id="rId1"/>
+    <sheet name="mech" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -426,22 +425,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58DCBA2-C090-E542-9E3E-12DC7D5E6E77}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821614B2-A993-F74B-8EE7-FDCAF6404E21}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -483,12 +470,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E131E0-4778-7544-AC59-77E4A2728CC9}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
